--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -975,7 +975,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" dataCaption="Values" showError="0" missingCaption="" showMissing="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" indent="0" multipleFieldFilters="0">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" dataCaption="Values" showError="0" missingCaption="" showMissing="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" createdVersion="5" indent="0" multipleFieldFilters="0">
   <x:location ref="A3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <x:pivotFields count="5">
     <x:pivotField name="Id">
@@ -1141,7 +1141,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="6" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="6" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" createdVersion="5" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="5">
     <x:pivotField name="Id" dataField="1" defaultSubtotal="0"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -978,21 +978,9 @@
 <x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" dataCaption="Values" showError="0" missingCaption="" showMissing="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" indent="0" multipleFieldFilters="0">
   <x:location ref="A3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <x:pivotFields count="5">
-    <x:pivotField name="Id">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="FullName">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Age" dataField="1">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
+    <x:pivotField name="Id"/>
+    <x:pivotField name="FullName"/>
+    <x:pivotField name="Age" dataField="1"/>
     <x:pivotField name="Sex" axis="axisRow" showAll="0">
       <x:items count="3">
         <x:item x="0"/>
@@ -1000,8 +988,8 @@
         <x:item t="default"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="IPAddress" axis="axisPage" showAll="0">
-      <x:items count="101">
+    <x:pivotField name="IPAddress" axis="axisPage" showAll="0" defaultSubtotal="0">
+      <x:items count="100">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
@@ -1102,7 +1090,6 @@
         <x:item x="97"/>
         <x:item x="98"/>
         <x:item x="99"/>
-        <x:item t="default"/>
       </x:items>
     </x:pivotField>
   </x:pivotFields>
@@ -1144,7 +1131,7 @@
 <x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="6" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="5">
-    <x:pivotField name="Id" dataField="1" defaultSubtotal="0"/>
+    <x:pivotField name="Id" dataField="1"/>
     <x:pivotField name="FullName" axis="axisRow" showAll="0" defaultSubtotal="0">
       <x:items count="100">
         <x:item x="0"/>
@@ -1249,14 +1236,14 @@
         <x:item x="99"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Age" defaultSubtotal="0"/>
+    <x:pivotField name="Age"/>
     <x:pivotField name="Sex" axis="axisCol" showAll="0" defaultSubtotal="0">
       <x:items count="2">
         <x:item x="0"/>
         <x:item x="1"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="IPAddress" defaultSubtotal="0"/>
+    <x:pivotField name="IPAddress"/>
   </x:pivotFields>
   <x:rowFields count="1">
     <x:field x="1"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -1867,7 +1867,7 @@
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="1" max="1" width="13.140625" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="14.570312" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="14.570313" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1905,7 +1905,7 @@
     <x:col min="1" max="1" width="4" style="0" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="20.285156" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="4.425781" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="7.570312" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="7.570313" style="0" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="14.855469" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -1867,7 +1867,7 @@
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="1" max="1" width="13.140625" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="14.570313" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="14.570312" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1905,7 +1905,7 @@
     <x:col min="1" max="1" width="4" style="0" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="20.285156" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="4.425781" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="7.570313" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="7.570312" style="0" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="14.855469" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -1927,13 +1927,13 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>99</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
@@ -1944,13 +1944,13 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>58</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
@@ -1961,13 +1961,13 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>38</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
@@ -1978,13 +1978,13 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="0">
         <x:v>98</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
@@ -1995,13 +1995,13 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="0">
         <x:v>64</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
@@ -2012,13 +2012,13 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="C7" s="0">
         <x:v>33</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
@@ -2029,13 +2029,13 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="0" t="n">
+      <x:c r="A8" s="0">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="C8" s="0">
         <x:v>31</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
@@ -2046,13 +2046,13 @@
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="0" t="n">
+      <x:c r="A9" s="0">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="C9" s="0">
         <x:v>64</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
@@ -2063,13 +2063,13 @@
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="0">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="C10" s="0">
         <x:v>46</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
@@ -2080,13 +2080,13 @@
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="0">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="C11" s="0">
         <x:v>63</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
@@ -2097,13 +2097,13 @@
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A12" s="0" t="n">
+      <x:c r="A12" s="0">
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="n">
+      <x:c r="C12" s="0">
         <x:v>95</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
@@ -2114,13 +2114,13 @@
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A13" s="0" t="n">
+      <x:c r="A13" s="0">
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="n">
+      <x:c r="C13" s="0">
         <x:v>90</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
@@ -2131,13 +2131,13 @@
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A14" s="0" t="n">
+      <x:c r="A14" s="0">
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="n">
+      <x:c r="C14" s="0">
         <x:v>51</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
@@ -2148,13 +2148,13 @@
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A15" s="0" t="n">
+      <x:c r="A15" s="0">
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="n">
+      <x:c r="C15" s="0">
         <x:v>82</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
@@ -2165,13 +2165,13 @@
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A16" s="0" t="n">
+      <x:c r="A16" s="0">
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="n">
+      <x:c r="C16" s="0">
         <x:v>88</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
@@ -2182,13 +2182,13 @@
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A17" s="0" t="n">
+      <x:c r="A17" s="0">
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="n">
+      <x:c r="C17" s="0">
         <x:v>34</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
@@ -2199,13 +2199,13 @@
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A18" s="0" t="n">
+      <x:c r="A18" s="0">
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="n">
+      <x:c r="C18" s="0">
         <x:v>79</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
@@ -2216,13 +2216,13 @@
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A19" s="0" t="n">
+      <x:c r="A19" s="0">
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="n">
+      <x:c r="C19" s="0">
         <x:v>84</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
@@ -2233,13 +2233,13 @@
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A20" s="0" t="n">
+      <x:c r="A20" s="0">
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="n">
+      <x:c r="C20" s="0">
         <x:v>51</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
@@ -2250,13 +2250,13 @@
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A21" s="0" t="n">
+      <x:c r="A21" s="0">
         <x:v>20</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="n">
+      <x:c r="C21" s="0">
         <x:v>40</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
@@ -2267,13 +2267,13 @@
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A22" s="0" t="n">
+      <x:c r="A22" s="0">
         <x:v>21</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="n">
+      <x:c r="C22" s="0">
         <x:v>48</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
@@ -2284,13 +2284,13 @@
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A23" s="0" t="n">
+      <x:c r="A23" s="0">
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="n">
+      <x:c r="C23" s="0">
         <x:v>49</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
@@ -2301,13 +2301,13 @@
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A24" s="0" t="n">
+      <x:c r="A24" s="0">
         <x:v>23</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="n">
+      <x:c r="C24" s="0">
         <x:v>82</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
@@ -2318,13 +2318,13 @@
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A25" s="0" t="n">
+      <x:c r="A25" s="0">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="n">
+      <x:c r="C25" s="0">
         <x:v>83</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
@@ -2335,13 +2335,13 @@
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A26" s="0" t="n">
+      <x:c r="A26" s="0">
         <x:v>25</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="n">
+      <x:c r="C26" s="0">
         <x:v>71</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
@@ -2352,13 +2352,13 @@
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A27" s="0" t="n">
+      <x:c r="A27" s="0">
         <x:v>26</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="n">
+      <x:c r="C27" s="0">
         <x:v>91</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
@@ -2369,13 +2369,13 @@
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A28" s="0" t="n">
+      <x:c r="A28" s="0">
         <x:v>27</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="n">
+      <x:c r="C28" s="0">
         <x:v>88</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
@@ -2386,13 +2386,13 @@
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A29" s="0" t="n">
+      <x:c r="A29" s="0">
         <x:v>28</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="n">
+      <x:c r="C29" s="0">
         <x:v>81</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
@@ -2403,13 +2403,13 @@
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A30" s="0" t="n">
+      <x:c r="A30" s="0">
         <x:v>29</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C30" s="0" t="n">
+      <x:c r="C30" s="0">
         <x:v>87</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
@@ -2420,13 +2420,13 @@
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A31" s="0" t="n">
+      <x:c r="A31" s="0">
         <x:v>30</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="C31" s="0" t="n">
+      <x:c r="C31" s="0">
         <x:v>26</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
@@ -2437,13 +2437,13 @@
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A32" s="0" t="n">
+      <x:c r="A32" s="0">
         <x:v>31</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C32" s="0" t="n">
+      <x:c r="C32" s="0">
         <x:v>45</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
@@ -2454,13 +2454,13 @@
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A33" s="0" t="n">
+      <x:c r="A33" s="0">
         <x:v>32</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C33" s="0" t="n">
+      <x:c r="C33" s="0">
         <x:v>66</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
@@ -2471,13 +2471,13 @@
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A34" s="0" t="n">
+      <x:c r="A34" s="0">
         <x:v>33</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="C34" s="0" t="n">
+      <x:c r="C34" s="0">
         <x:v>67</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
@@ -2488,13 +2488,13 @@
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A35" s="0" t="n">
+      <x:c r="A35" s="0">
         <x:v>34</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C35" s="0" t="n">
+      <x:c r="C35" s="0">
         <x:v>94</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
@@ -2505,13 +2505,13 @@
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A36" s="0" t="n">
+      <x:c r="A36" s="0">
         <x:v>35</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C36" s="0" t="n">
+      <x:c r="C36" s="0">
         <x:v>43</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
@@ -2522,13 +2522,13 @@
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A37" s="0" t="n">
+      <x:c r="A37" s="0">
         <x:v>36</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="C37" s="0" t="n">
+      <x:c r="C37" s="0">
         <x:v>71</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
@@ -2539,13 +2539,13 @@
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A38" s="0" t="n">
+      <x:c r="A38" s="0">
         <x:v>37</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C38" s="0" t="n">
+      <x:c r="C38" s="0">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
@@ -2556,13 +2556,13 @@
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A39" s="0" t="n">
+      <x:c r="A39" s="0">
         <x:v>38</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C39" s="0" t="n">
+      <x:c r="C39" s="0">
         <x:v>99</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
@@ -2573,13 +2573,13 @@
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A40" s="0" t="n">
+      <x:c r="A40" s="0">
         <x:v>39</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="C40" s="0" t="n">
+      <x:c r="C40" s="0">
         <x:v>64</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
@@ -2590,13 +2590,13 @@
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A41" s="0" t="n">
+      <x:c r="A41" s="0">
         <x:v>40</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C41" s="0" t="n">
+      <x:c r="C41" s="0">
         <x:v>60</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
@@ -2607,13 +2607,13 @@
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A42" s="0" t="n">
+      <x:c r="A42" s="0">
         <x:v>41</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="C42" s="0" t="n">
+      <x:c r="C42" s="0">
         <x:v>69</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
@@ -2624,13 +2624,13 @@
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A43" s="0" t="n">
+      <x:c r="A43" s="0">
         <x:v>42</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="C43" s="0" t="n">
+      <x:c r="C43" s="0">
         <x:v>46</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
@@ -2641,13 +2641,13 @@
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A44" s="0" t="n">
+      <x:c r="A44" s="0">
         <x:v>43</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C44" s="0" t="n">
+      <x:c r="C44" s="0">
         <x:v>81</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
@@ -2658,13 +2658,13 @@
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A45" s="0" t="n">
+      <x:c r="A45" s="0">
         <x:v>44</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="C45" s="0" t="n">
+      <x:c r="C45" s="0">
         <x:v>80</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
@@ -2675,13 +2675,13 @@
       </x:c>
     </x:row>
     <x:row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A46" s="0" t="n">
+      <x:c r="A46" s="0">
         <x:v>45</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="C46" s="0" t="n">
+      <x:c r="C46" s="0">
         <x:v>51</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
@@ -2692,13 +2692,13 @@
       </x:c>
     </x:row>
     <x:row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A47" s="0" t="n">
+      <x:c r="A47" s="0">
         <x:v>46</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C47" s="0" t="n">
+      <x:c r="C47" s="0">
         <x:v>65</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
@@ -2709,13 +2709,13 @@
       </x:c>
     </x:row>
     <x:row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A48" s="0" t="n">
+      <x:c r="A48" s="0">
         <x:v>47</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="C48" s="0" t="n">
+      <x:c r="C48" s="0">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
@@ -2726,13 +2726,13 @@
       </x:c>
     </x:row>
     <x:row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A49" s="0" t="n">
+      <x:c r="A49" s="0">
         <x:v>48</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C49" s="0" t="n">
+      <x:c r="C49" s="0">
         <x:v>31</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
@@ -2743,13 +2743,13 @@
       </x:c>
     </x:row>
     <x:row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A50" s="0" t="n">
+      <x:c r="A50" s="0">
         <x:v>49</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C50" s="0" t="n">
+      <x:c r="C50" s="0">
         <x:v>58</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
@@ -2760,13 +2760,13 @@
       </x:c>
     </x:row>
     <x:row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A51" s="0" t="n">
+      <x:c r="A51" s="0">
         <x:v>50</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="C51" s="0" t="n">
+      <x:c r="C51" s="0">
         <x:v>30</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
@@ -2777,13 +2777,13 @@
       </x:c>
     </x:row>
     <x:row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A52" s="0" t="n">
+      <x:c r="A52" s="0">
         <x:v>51</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="C52" s="0" t="n">
+      <x:c r="C52" s="0">
         <x:v>75</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
@@ -2794,13 +2794,13 @@
       </x:c>
     </x:row>
     <x:row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A53" s="0" t="n">
+      <x:c r="A53" s="0">
         <x:v>52</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="C53" s="0" t="n">
+      <x:c r="C53" s="0">
         <x:v>45</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
@@ -2811,13 +2811,13 @@
       </x:c>
     </x:row>
     <x:row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A54" s="0" t="n">
+      <x:c r="A54" s="0">
         <x:v>53</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="C54" s="0" t="n">
+      <x:c r="C54" s="0">
         <x:v>43</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
@@ -2828,13 +2828,13 @@
       </x:c>
     </x:row>
     <x:row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A55" s="0" t="n">
+      <x:c r="A55" s="0">
         <x:v>54</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="C55" s="0" t="n">
+      <x:c r="C55" s="0">
         <x:v>44</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
@@ -2845,13 +2845,13 @@
       </x:c>
     </x:row>
     <x:row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A56" s="0" t="n">
+      <x:c r="A56" s="0">
         <x:v>55</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="C56" s="0" t="n">
+      <x:c r="C56" s="0">
         <x:v>52</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
@@ -2862,13 +2862,13 @@
       </x:c>
     </x:row>
     <x:row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A57" s="0" t="n">
+      <x:c r="A57" s="0">
         <x:v>56</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="C57" s="0" t="n">
+      <x:c r="C57" s="0">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
@@ -2879,13 +2879,13 @@
       </x:c>
     </x:row>
     <x:row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A58" s="0" t="n">
+      <x:c r="A58" s="0">
         <x:v>57</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="C58" s="0" t="n">
+      <x:c r="C58" s="0">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
@@ -2896,13 +2896,13 @@
       </x:c>
     </x:row>
     <x:row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A59" s="0" t="n">
+      <x:c r="A59" s="0">
         <x:v>58</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="C59" s="0" t="n">
+      <x:c r="C59" s="0">
         <x:v>40</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
@@ -2913,13 +2913,13 @@
       </x:c>
     </x:row>
     <x:row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A60" s="0" t="n">
+      <x:c r="A60" s="0">
         <x:v>59</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="C60" s="0" t="n">
+      <x:c r="C60" s="0">
         <x:v>53</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
@@ -2930,13 +2930,13 @@
       </x:c>
     </x:row>
     <x:row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A61" s="0" t="n">
+      <x:c r="A61" s="0">
         <x:v>60</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="C61" s="0" t="n">
+      <x:c r="C61" s="0">
         <x:v>31</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
@@ -2947,13 +2947,13 @@
       </x:c>
     </x:row>
     <x:row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A62" s="0" t="n">
+      <x:c r="A62" s="0">
         <x:v>61</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="C62" s="0" t="n">
+      <x:c r="C62" s="0">
         <x:v>63</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
@@ -2964,13 +2964,13 @@
       </x:c>
     </x:row>
     <x:row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A63" s="0" t="n">
+      <x:c r="A63" s="0">
         <x:v>62</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="C63" s="0" t="n">
+      <x:c r="C63" s="0">
         <x:v>34</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
@@ -2981,13 +2981,13 @@
       </x:c>
     </x:row>
     <x:row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A64" s="0" t="n">
+      <x:c r="A64" s="0">
         <x:v>63</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="C64" s="0" t="n">
+      <x:c r="C64" s="0">
         <x:v>65</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
@@ -2998,13 +2998,13 @@
       </x:c>
     </x:row>
     <x:row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A65" s="0" t="n">
+      <x:c r="A65" s="0">
         <x:v>64</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="C65" s="0" t="n">
+      <x:c r="C65" s="0">
         <x:v>67</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
@@ -3015,13 +3015,13 @@
       </x:c>
     </x:row>
     <x:row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A66" s="0" t="n">
+      <x:c r="A66" s="0">
         <x:v>65</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="C66" s="0" t="n">
+      <x:c r="C66" s="0">
         <x:v>35</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
@@ -3032,13 +3032,13 @@
       </x:c>
     </x:row>
     <x:row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A67" s="0" t="n">
+      <x:c r="A67" s="0">
         <x:v>66</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="C67" s="0" t="n">
+      <x:c r="C67" s="0">
         <x:v>81</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
@@ -3049,13 +3049,13 @@
       </x:c>
     </x:row>
     <x:row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A68" s="0" t="n">
+      <x:c r="A68" s="0">
         <x:v>67</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="C68" s="0" t="n">
+      <x:c r="C68" s="0">
         <x:v>30</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
@@ -3066,13 +3066,13 @@
       </x:c>
     </x:row>
     <x:row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A69" s="0" t="n">
+      <x:c r="A69" s="0">
         <x:v>68</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="C69" s="0" t="n">
+      <x:c r="C69" s="0">
         <x:v>92</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
@@ -3083,13 +3083,13 @@
       </x:c>
     </x:row>
     <x:row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A70" s="0" t="n">
+      <x:c r="A70" s="0">
         <x:v>69</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="C70" s="0" t="n">
+      <x:c r="C70" s="0">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
@@ -3100,13 +3100,13 @@
       </x:c>
     </x:row>
     <x:row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A71" s="0" t="n">
+      <x:c r="A71" s="0">
         <x:v>70</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="C71" s="0" t="n">
+      <x:c r="C71" s="0">
         <x:v>43</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
@@ -3117,13 +3117,13 @@
       </x:c>
     </x:row>
     <x:row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A72" s="0" t="n">
+      <x:c r="A72" s="0">
         <x:v>71</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="C72" s="0" t="n">
+      <x:c r="C72" s="0">
         <x:v>41</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
@@ -3134,13 +3134,13 @@
       </x:c>
     </x:row>
     <x:row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A73" s="0" t="n">
+      <x:c r="A73" s="0">
         <x:v>72</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="C73" s="0" t="n">
+      <x:c r="C73" s="0">
         <x:v>45</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
@@ -3151,13 +3151,13 @@
       </x:c>
     </x:row>
     <x:row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A74" s="0" t="n">
+      <x:c r="A74" s="0">
         <x:v>73</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="C74" s="0" t="n">
+      <x:c r="C74" s="0">
         <x:v>92</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
@@ -3168,13 +3168,13 @@
       </x:c>
     </x:row>
     <x:row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A75" s="0" t="n">
+      <x:c r="A75" s="0">
         <x:v>74</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="C75" s="0" t="n">
+      <x:c r="C75" s="0">
         <x:v>24</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
@@ -3185,13 +3185,13 @@
       </x:c>
     </x:row>
     <x:row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A76" s="0" t="n">
+      <x:c r="A76" s="0">
         <x:v>75</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="C76" s="0" t="n">
+      <x:c r="C76" s="0">
         <x:v>44</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
@@ -3202,13 +3202,13 @@
       </x:c>
     </x:row>
     <x:row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A77" s="0" t="n">
+      <x:c r="A77" s="0">
         <x:v>76</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="C77" s="0" t="n">
+      <x:c r="C77" s="0">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
@@ -3219,13 +3219,13 @@
       </x:c>
     </x:row>
     <x:row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A78" s="0" t="n">
+      <x:c r="A78" s="0">
         <x:v>77</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="C78" s="0" t="n">
+      <x:c r="C78" s="0">
         <x:v>96</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
@@ -3236,13 +3236,13 @@
       </x:c>
     </x:row>
     <x:row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A79" s="0" t="n">
+      <x:c r="A79" s="0">
         <x:v>78</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="C79" s="0" t="n">
+      <x:c r="C79" s="0">
         <x:v>71</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
@@ -3253,13 +3253,13 @@
       </x:c>
     </x:row>
     <x:row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A80" s="0" t="n">
+      <x:c r="A80" s="0">
         <x:v>79</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="C80" s="0" t="n">
+      <x:c r="C80" s="0">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
@@ -3270,13 +3270,13 @@
       </x:c>
     </x:row>
     <x:row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A81" s="0" t="n">
+      <x:c r="A81" s="0">
         <x:v>80</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="C81" s="0" t="n">
+      <x:c r="C81" s="0">
         <x:v>26</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
@@ -3287,13 +3287,13 @@
       </x:c>
     </x:row>
     <x:row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A82" s="0" t="n">
+      <x:c r="A82" s="0">
         <x:v>81</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="C82" s="0" t="n">
+      <x:c r="C82" s="0">
         <x:v>67</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
@@ -3304,13 +3304,13 @@
       </x:c>
     </x:row>
     <x:row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A83" s="0" t="n">
+      <x:c r="A83" s="0">
         <x:v>82</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="C83" s="0" t="n">
+      <x:c r="C83" s="0">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
@@ -3321,13 +3321,13 @@
       </x:c>
     </x:row>
     <x:row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A84" s="0" t="n">
+      <x:c r="A84" s="0">
         <x:v>83</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="C84" s="0" t="n">
+      <x:c r="C84" s="0">
         <x:v>43</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
@@ -3338,13 +3338,13 @@
       </x:c>
     </x:row>
     <x:row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A85" s="0" t="n">
+      <x:c r="A85" s="0">
         <x:v>84</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="C85" s="0" t="n">
+      <x:c r="C85" s="0">
         <x:v>90</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
@@ -3355,13 +3355,13 @@
       </x:c>
     </x:row>
     <x:row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A86" s="0" t="n">
+      <x:c r="A86" s="0">
         <x:v>85</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="C86" s="0" t="n">
+      <x:c r="C86" s="0">
         <x:v>49</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
@@ -3372,13 +3372,13 @@
       </x:c>
     </x:row>
     <x:row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A87" s="0" t="n">
+      <x:c r="A87" s="0">
         <x:v>86</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="C87" s="0" t="n">
+      <x:c r="C87" s="0">
         <x:v>47</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
@@ -3389,13 +3389,13 @@
       </x:c>
     </x:row>
     <x:row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A88" s="0" t="n">
+      <x:c r="A88" s="0">
         <x:v>87</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="C88" s="0" t="n">
+      <x:c r="C88" s="0">
         <x:v>82</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
@@ -3406,13 +3406,13 @@
       </x:c>
     </x:row>
     <x:row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A89" s="0" t="n">
+      <x:c r="A89" s="0">
         <x:v>88</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="C89" s="0" t="n">
+      <x:c r="C89" s="0">
         <x:v>95</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
@@ -3423,13 +3423,13 @@
       </x:c>
     </x:row>
     <x:row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A90" s="0" t="n">
+      <x:c r="A90" s="0">
         <x:v>89</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="C90" s="0" t="n">
+      <x:c r="C90" s="0">
         <x:v>47</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
@@ -3440,13 +3440,13 @@
       </x:c>
     </x:row>
     <x:row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A91" s="0" t="n">
+      <x:c r="A91" s="0">
         <x:v>90</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="C91" s="0" t="n">
+      <x:c r="C91" s="0">
         <x:v>47</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
@@ -3457,13 +3457,13 @@
       </x:c>
     </x:row>
     <x:row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A92" s="0" t="n">
+      <x:c r="A92" s="0">
         <x:v>91</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="C92" s="0" t="n">
+      <x:c r="C92" s="0">
         <x:v>70</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
@@ -3474,13 +3474,13 @@
       </x:c>
     </x:row>
     <x:row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A93" s="0" t="n">
+      <x:c r="A93" s="0">
         <x:v>92</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="C93" s="0" t="n">
+      <x:c r="C93" s="0">
         <x:v>81</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
@@ -3491,13 +3491,13 @@
       </x:c>
     </x:row>
     <x:row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A94" s="0" t="n">
+      <x:c r="A94" s="0">
         <x:v>93</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="C94" s="0" t="n">
+      <x:c r="C94" s="0">
         <x:v>94</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
@@ -3508,13 +3508,13 @@
       </x:c>
     </x:row>
     <x:row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A95" s="0" t="n">
+      <x:c r="A95" s="0">
         <x:v>94</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="C95" s="0" t="n">
+      <x:c r="C95" s="0">
         <x:v>57</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
@@ -3525,13 +3525,13 @@
       </x:c>
     </x:row>
     <x:row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A96" s="0" t="n">
+      <x:c r="A96" s="0">
         <x:v>95</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
-      <x:c r="C96" s="0" t="n">
+      <x:c r="C96" s="0">
         <x:v>82</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
@@ -3542,13 +3542,13 @@
       </x:c>
     </x:row>
     <x:row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A97" s="0" t="n">
+      <x:c r="A97" s="0">
         <x:v>96</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="C97" s="0" t="n">
+      <x:c r="C97" s="0">
         <x:v>33</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
@@ -3559,13 +3559,13 @@
       </x:c>
     </x:row>
     <x:row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A98" s="0" t="n">
+      <x:c r="A98" s="0">
         <x:v>97</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="C98" s="0" t="n">
+      <x:c r="C98" s="0">
         <x:v>99</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
@@ -3576,13 +3576,13 @@
       </x:c>
     </x:row>
     <x:row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A99" s="0" t="n">
+      <x:c r="A99" s="0">
         <x:v>98</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="C99" s="0" t="n">
+      <x:c r="C99" s="0">
         <x:v>54</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
@@ -3593,13 +3593,13 @@
       </x:c>
     </x:row>
     <x:row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A100" s="0" t="n">
+      <x:c r="A100" s="0">
         <x:v>99</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
-      <x:c r="C100" s="0" t="n">
+      <x:c r="C100" s="0">
         <x:v>69</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
@@ -3610,13 +3610,13 @@
       </x:c>
     </x:row>
     <x:row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <x:c r="A101" s="0" t="n">
+      <x:c r="A101" s="0">
         <x:v>100</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="C101" s="0" t="n">
+      <x:c r="C101" s="0">
         <x:v>46</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -1878,10 +1878,6 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
-    <x:row r="4" spans="1:2" x14ac:dyDescent="0.25"/>
-    <x:row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
-    <x:row r="6" spans="1:2" x14ac:dyDescent="0.25"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -19,8 +19,7 @@
   <x:definedNames/>
   <x:calcPr calcId="152511"/>
   <x:pivotCaches>
-    <x:pivotCache cacheId="5" r:id="rId3"/>
-    <x:pivotCache cacheId="6" r:id="rId8"/>
+    <x:pivotCache cacheId="0" r:id="rId3"/>
   </x:pivotCaches>
   <x:extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>IPAddress</x:t>
   </x:si>
@@ -742,7 +741,108 @@
   </x:cacheSource>
   <x:cacheFields count="5">
     <x:cacheField name="Id">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="100" count="100"/>
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="100" count="100">
+        <x:n v="1"/>
+        <x:n v="2"/>
+        <x:n v="3"/>
+        <x:n v="4"/>
+        <x:n v="5"/>
+        <x:n v="6"/>
+        <x:n v="7"/>
+        <x:n v="8"/>
+        <x:n v="9"/>
+        <x:n v="10"/>
+        <x:n v="11"/>
+        <x:n v="12"/>
+        <x:n v="13"/>
+        <x:n v="14"/>
+        <x:n v="15"/>
+        <x:n v="16"/>
+        <x:n v="17"/>
+        <x:n v="18"/>
+        <x:n v="19"/>
+        <x:n v="20"/>
+        <x:n v="21"/>
+        <x:n v="22"/>
+        <x:n v="23"/>
+        <x:n v="24"/>
+        <x:n v="25"/>
+        <x:n v="26"/>
+        <x:n v="27"/>
+        <x:n v="28"/>
+        <x:n v="29"/>
+        <x:n v="30"/>
+        <x:n v="31"/>
+        <x:n v="32"/>
+        <x:n v="33"/>
+        <x:n v="34"/>
+        <x:n v="35"/>
+        <x:n v="36"/>
+        <x:n v="37"/>
+        <x:n v="38"/>
+        <x:n v="39"/>
+        <x:n v="40"/>
+        <x:n v="41"/>
+        <x:n v="42"/>
+        <x:n v="43"/>
+        <x:n v="44"/>
+        <x:n v="45"/>
+        <x:n v="46"/>
+        <x:n v="47"/>
+        <x:n v="48"/>
+        <x:n v="49"/>
+        <x:n v="50"/>
+        <x:n v="51"/>
+        <x:n v="52"/>
+        <x:n v="53"/>
+        <x:n v="54"/>
+        <x:n v="55"/>
+        <x:n v="56"/>
+        <x:n v="57"/>
+        <x:n v="58"/>
+        <x:n v="59"/>
+        <x:n v="60"/>
+        <x:n v="61"/>
+        <x:n v="62"/>
+        <x:n v="63"/>
+        <x:n v="64"/>
+        <x:n v="65"/>
+        <x:n v="66"/>
+        <x:n v="67"/>
+        <x:n v="68"/>
+        <x:n v="69"/>
+        <x:n v="70"/>
+        <x:n v="71"/>
+        <x:n v="72"/>
+        <x:n v="73"/>
+        <x:n v="74"/>
+        <x:n v="75"/>
+        <x:n v="76"/>
+        <x:n v="77"/>
+        <x:n v="78"/>
+        <x:n v="79"/>
+        <x:n v="80"/>
+        <x:n v="81"/>
+        <x:n v="82"/>
+        <x:n v="83"/>
+        <x:n v="84"/>
+        <x:n v="85"/>
+        <x:n v="86"/>
+        <x:n v="87"/>
+        <x:n v="88"/>
+        <x:n v="89"/>
+        <x:n v="90"/>
+        <x:n v="91"/>
+        <x:n v="92"/>
+        <x:n v="93"/>
+        <x:n v="94"/>
+        <x:n v="95"/>
+        <x:n v="96"/>
+        <x:n v="97"/>
+        <x:n v="98"/>
+        <x:n v="99"/>
+        <x:n v="100"/>
+      </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="FullName">
       <x:sharedItems count="100">
@@ -849,7 +949,64 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Age">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="22" maxValue="100" count="56"/>
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="22" maxValue="100" count="56">
+        <x:n v="99"/>
+        <x:n v="58"/>
+        <x:n v="38"/>
+        <x:n v="98"/>
+        <x:n v="64"/>
+        <x:n v="33"/>
+        <x:n v="31"/>
+        <x:n v="46"/>
+        <x:n v="63"/>
+        <x:n v="95"/>
+        <x:n v="90"/>
+        <x:n v="51"/>
+        <x:n v="82"/>
+        <x:n v="88"/>
+        <x:n v="34"/>
+        <x:n v="79"/>
+        <x:n v="84"/>
+        <x:n v="40"/>
+        <x:n v="48"/>
+        <x:n v="49"/>
+        <x:n v="83"/>
+        <x:n v="71"/>
+        <x:n v="91"/>
+        <x:n v="81"/>
+        <x:n v="87"/>
+        <x:n v="26"/>
+        <x:n v="45"/>
+        <x:n v="66"/>
+        <x:n v="67"/>
+        <x:n v="94"/>
+        <x:n v="43"/>
+        <x:n v="32"/>
+        <x:n v="60"/>
+        <x:n v="69"/>
+        <x:n v="80"/>
+        <x:n v="65"/>
+        <x:n v="36"/>
+        <x:n v="30"/>
+        <x:n v="75"/>
+        <x:n v="44"/>
+        <x:n v="52"/>
+        <x:n v="100"/>
+        <x:n v="59"/>
+        <x:n v="53"/>
+        <x:n v="35"/>
+        <x:n v="92"/>
+        <x:n v="37"/>
+        <x:n v="41"/>
+        <x:n v="24"/>
+        <x:n v="22"/>
+        <x:n v="96"/>
+        <x:n v="39"/>
+        <x:n v="47"/>
+        <x:n v="70"/>
+        <x:n v="57"/>
+        <x:n v="54"/>
+      </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Sex">
       <x:sharedItems count="2">
@@ -975,7 +1132,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" dataCaption="Values" showError="0" missingCaption="" showMissing="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" indent="0" multipleFieldFilters="0">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" indent="0" multipleFieldFilters="0">
   <x:location ref="A3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <x:pivotFields count="5">
     <x:pivotField name="Id">
@@ -1141,7 +1298,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="6" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="5">
     <x:pivotField name="Id" dataField="1" defaultSubtotal="0"/>
@@ -3648,238 +3805,4 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
-</file>
-
-<file path=pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3">
-  <x:cacheSource type="worksheet">
-    <x:worksheetSource ref="A1:E101" sheet="Data"/>
-  </x:cacheSource>
-  <x:cacheFields>
-    <x:cacheField name="Id">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="100" count="100"/>
-    </x:cacheField>
-    <x:cacheField name="FullName">
-      <x:sharedItems count="100">
-        <x:s v="Gwendolyn Holstein"/>
-        <x:s v="Vivia Ferne"/>
-        <x:s v="Robby Zecchi"/>
-        <x:s v="Katti Riteley"/>
-        <x:s v="Dita Uzzell"/>
-        <x:s v="Dunstan Jandl"/>
-        <x:s v="Pepito Gibard"/>
-        <x:s v="Dominik Abby"/>
-        <x:s v="Vinnie Boarer"/>
-        <x:s v="Erich Crittal"/>
-        <x:s v="Al Bullion"/>
-        <x:s v="Granny Eger"/>
-        <x:s v="Cheri Sirmon"/>
-        <x:s v="Vasily De Caroli"/>
-        <x:s v="Em Tooley"/>
-        <x:s v="Elora Peyzer"/>
-        <x:s v="Pennie Cocci"/>
-        <x:s v="Zerk Geeves"/>
-        <x:s v="Izzy Mellsop"/>
-        <x:s v="Zacherie Tofano"/>
-        <x:s v="Savina Blest"/>
-        <x:s v="Tremaine Mailey"/>
-        <x:s v="Cherish Blowin"/>
-        <x:s v="Thaddeus Berrick"/>
-        <x:s v="Mason Guilliland"/>
-        <x:s v="Staffard Marvelley"/>
-        <x:s v="Artur Stroud"/>
-        <x:s v="Kirk Balwin"/>
-        <x:s v="Solomon Patinkin"/>
-        <x:s v="Fernande Frape"/>
-        <x:s v="Otha Pragnall"/>
-        <x:s v="Sidonia Cursons"/>
-        <x:s v="Farlay Churchill"/>
-        <x:s v="Mikol Payfoot"/>
-        <x:s v="Shandra Coad"/>
-        <x:s v="Muffin Symmers"/>
-        <x:s v="Norbert Simkins"/>
-        <x:s v="Dionisio Brimilcombe"/>
-        <x:s v="Isac Bestwick"/>
-        <x:s v="Troy Edlin"/>
-        <x:s v="Massimo Ricard"/>
-        <x:s v="Bryce Guillard"/>
-        <x:s v="Robena Petris"/>
-        <x:s v="Abe Moiser"/>
-        <x:s v="Iosep Skellorne"/>
-        <x:s v="Idaline Innman"/>
-        <x:s v="Cello Ticksall"/>
-        <x:s v="Rafaello Hampshaw"/>
-        <x:s v="Sherm McCuaig"/>
-        <x:s v="Jory Finch"/>
-        <x:s v="Peterus Horsey"/>
-        <x:s v="Mylo Collum"/>
-        <x:s v="Oran Brimilcombe"/>
-        <x:s v="Winona Cawcutt"/>
-        <x:s v="Eileen De Laspee"/>
-        <x:s v="Sheila-kathryn Bent"/>
-        <x:s v="Nelia Dudley"/>
-        <x:s v="Ulysses Hunte"/>
-        <x:s v="Kyla McAnulty"/>
-        <x:s v="Bil Eunson"/>
-        <x:s v="Cora Kenlin"/>
-        <x:s v="Beverly Winspur"/>
-        <x:s v="Hobard Castillon"/>
-        <x:s v="Sam Gilligan"/>
-        <x:s v="Trev MacMakin"/>
-        <x:s v="Kylila Bache"/>
-        <x:s v="Elwood Furmagier"/>
-        <x:s v="Conrad Perri"/>
-        <x:s v="Linea Berthot"/>
-        <x:s v="Costanza Dungay"/>
-        <x:s v="Imojean Yve"/>
-        <x:s v="Cherye Delve"/>
-        <x:s v="Saw O'Grada"/>
-        <x:s v="Angelia Glendza"/>
-        <x:s v="Roze Foulds"/>
-        <x:s v="Adair Allsobrook"/>
-        <x:s v="Dalli Mallebone"/>
-        <x:s v="Giacinta Lusk"/>
-        <x:s v="Lauren Abrahmer"/>
-        <x:s v="Jakie Murley"/>
-        <x:s v="Franny Bartoszewicz"/>
-        <x:s v="Sullivan Hallaways"/>
-        <x:s v="Borden Shane"/>
-        <x:s v="Ariela Lichfield"/>
-        <x:s v="Ianthe Ronaldson"/>
-        <x:s v="Renado Oaker"/>
-        <x:s v="Marty Brezlaw"/>
-        <x:s v="Lorry Cudd"/>
-        <x:s v="Brigham Draisey"/>
-        <x:s v="Corbett Caskie"/>
-        <x:s v="Egbert Errichi"/>
-        <x:s v="Kathleen Shakesby"/>
-        <x:s v="Jacinthe Mulchrone"/>
-        <x:s v="Ermanno Pifford"/>
-        <x:s v="Nonie Calvard"/>
-        <x:s v="Curcio Godon"/>
-        <x:s v="Winni Annis"/>
-        <x:s v="Micheil Kiehnlt"/>
-        <x:s v="Chad Sopp"/>
-        <x:s v="Emera Clawsley"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Age">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="22" maxValue="100" count="56"/>
-    </x:cacheField>
-    <x:cacheField name="Sex">
-      <x:sharedItems count="2">
-        <x:s v="Female"/>
-        <x:s v="Male"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="IPAddress">
-      <x:sharedItems count="100">
-        <x:s v="202.45.194.182"/>
-        <x:s v="204.111.177.99"/>
-        <x:s v="178.181.18.15"/>
-        <x:s v="82.55.9.224"/>
-        <x:s v="195.91.193.170"/>
-        <x:s v="11.97.68.208"/>
-        <x:s v="17.139.200.5"/>
-        <x:s v="91.116.137.203"/>
-        <x:s v="193.21.180.180"/>
-        <x:s v="168.240.154.238"/>
-        <x:s v="62.99.152.149"/>
-        <x:s v="27.157.156.125"/>
-        <x:s v="146.69.50.129"/>
-        <x:s v="203.237.164.29"/>
-        <x:s v="53.98.54.229"/>
-        <x:s v="152.250.34.201"/>
-        <x:s v="7.241.106.176"/>
-        <x:s v="9.37.110.206"/>
-        <x:s v="227.208.97.133"/>
-        <x:s v="204.115.95.235"/>
-        <x:s v="185.222.202.35"/>
-        <x:s v="163.187.30.249"/>
-        <x:s v="54.164.124.167"/>
-        <x:s v="92.181.37.212"/>
-        <x:s v="201.248.191.217"/>
-        <x:s v="233.108.60.107"/>
-        <x:s v="15.0.114.250"/>
-        <x:s v="106.0.247.243"/>
-        <x:s v="145.25.14.10"/>
-        <x:s v="63.19.148.247"/>
-        <x:s v="143.158.51.93"/>
-        <x:s v="247.60.229.19"/>
-        <x:s v="50.243.139.233"/>
-        <x:s v="173.246.93.121"/>
-        <x:s v="219.82.159.40"/>
-        <x:s v="135.185.34.151"/>
-        <x:s v="45.242.82.200"/>
-        <x:s v="93.139.211.99"/>
-        <x:s v="36.121.179.186"/>
-        <x:s v="244.175.137.119"/>
-        <x:s v="240.12.55.3"/>
-        <x:s v="101.111.129.162"/>
-        <x:s v="33.132.202.203"/>
-        <x:s v="158.223.145.79"/>
-        <x:s v="228.223.123.75"/>
-        <x:s v="247.168.146.19"/>
-        <x:s v="73.147.212.62"/>
-        <x:s v="224.166.105.222"/>
-        <x:s v="104.211.158.194"/>
-        <x:s v="35.22.51.254"/>
-        <x:s v="220.181.157.99"/>
-        <x:s v="1.9.154.12"/>
-        <x:s v="203.240.48.149"/>
-        <x:s v="248.140.174.102"/>
-        <x:s v="112.211.240.245"/>
-        <x:s v="125.214.233.201"/>
-        <x:s v="31.158.128.230"/>
-        <x:s v="164.143.147.20"/>
-        <x:s v="255.86.133.18"/>
-        <x:s v="102.142.43.172"/>
-        <x:s v="3.203.122.183"/>
-        <x:s v="64.104.110.115"/>
-        <x:s v="210.81.217.85"/>
-        <x:s v="178.193.63.53"/>
-        <x:s v="230.192.12.25"/>
-        <x:s v="172.214.218.255"/>
-        <x:s v="33.151.238.228"/>
-        <x:s v="102.88.99.96"/>
-        <x:s v="28.21.6.255"/>
-        <x:s v="234.186.52.64"/>
-        <x:s v="205.22.49.211"/>
-        <x:s v="89.17.9.203"/>
-        <x:s v="214.15.241.95"/>
-        <x:s v="26.156.14.132"/>
-        <x:s v="30.102.55.28"/>
-        <x:s v="200.169.227.85"/>
-        <x:s v="75.36.125.212"/>
-        <x:s v="133.48.225.108"/>
-        <x:s v="139.126.222.6"/>
-        <x:s v="78.135.64.43"/>
-        <x:s v="105.189.69.205"/>
-        <x:s v="217.100.47.134"/>
-        <x:s v="0.98.124.169"/>
-        <x:s v="0.9.5.111"/>
-        <x:s v="127.199.7.104"/>
-        <x:s v="247.255.250.93"/>
-        <x:s v="238.5.0.2"/>
-        <x:s v="58.7.202.165"/>
-        <x:s v="245.215.45.165"/>
-        <x:s v="252.140.216.249"/>
-        <x:s v="5.237.50.211"/>
-        <x:s v="44.247.91.77"/>
-        <x:s v="132.148.93.151"/>
-        <x:s v="122.87.178.124"/>
-        <x:s v="97.240.228.116"/>
-        <x:s v="218.101.77.119"/>
-        <x:s v="79.13.213.88"/>
-        <x:s v="25.28.148.212"/>
-        <x:s v="19.219.115.172"/>
-        <x:s v="232.193.153.155"/>
-      </x:sharedItems>
-    </x:cacheField>
-  </x:cacheFields>
-</x:pivotCacheDefinition>
-</file>
-
-<file path=pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -3793,7 +3793,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -3789,7 +3789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -38,6 +38,12 @@
     <x:t>(All)</x:t>
   </x:si>
   <x:si>
+    <x:t>Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
     <x:t>Id</x:t>
   </x:si>
   <x:si>
@@ -53,9 +59,6 @@
     <x:t>Gwendolyn Holstein</x:t>
   </x:si>
   <x:si>
-    <x:t>Female</x:t>
-  </x:si>
-  <x:si>
     <x:t>202.45.194.182</x:t>
   </x:si>
   <x:si>
@@ -84,9 +87,6 @@
   </x:si>
   <x:si>
     <x:t>Dunstan Jandl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Male</x:t>
   </x:si>
   <x:si>
     <x:t>11.97.68.208</x:t>
@@ -2064,16 +2064,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A1" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
         <x:v>0</x:v>
@@ -2084,16 +2084,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="0">
         <x:v>99</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2101,16 +2101,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="0">
         <x:v>58</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2118,16 +2118,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="0">
         <x:v>38</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2135,16 +2135,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="0">
         <x:v>98</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2152,16 +2152,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="0">
         <x:v>64</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2169,13 +2169,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C7" s="0">
         <x:v>33</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>19</x:v>
@@ -2192,7 +2192,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>21</x:v>
@@ -2209,7 +2209,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>23</x:v>
@@ -2226,7 +2226,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>25</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>27</x:v>
@@ -2260,7 +2260,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>29</x:v>
@@ -2277,7 +2277,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>31</x:v>
@@ -2294,7 +2294,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>33</x:v>
@@ -2311,7 +2311,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>35</x:v>
@@ -2328,7 +2328,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>37</x:v>
@@ -2345,7 +2345,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>39</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>41</x:v>
@@ -2379,7 +2379,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>43</x:v>
@@ -2396,7 +2396,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>45</x:v>
@@ -2413,7 +2413,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>47</x:v>
@@ -2430,7 +2430,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>49</x:v>
@@ -2447,7 +2447,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>51</x:v>
@@ -2464,7 +2464,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>53</x:v>
@@ -2481,7 +2481,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>55</x:v>
@@ -2498,7 +2498,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>57</x:v>
@@ -2515,7 +2515,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>59</x:v>
@@ -2532,7 +2532,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>61</x:v>
@@ -2549,7 +2549,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
         <x:v>63</x:v>
@@ -2566,7 +2566,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>65</x:v>
@@ -2583,7 +2583,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>67</x:v>
@@ -2600,7 +2600,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>69</x:v>
@@ -2617,7 +2617,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
         <x:v>71</x:v>
@@ -2634,7 +2634,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>73</x:v>
@@ -2651,7 +2651,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
         <x:v>75</x:v>
@@ -2668,7 +2668,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>77</x:v>
@@ -2685,7 +2685,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>79</x:v>
@@ -2702,7 +2702,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>81</x:v>
@@ -2719,7 +2719,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>83</x:v>
@@ -2736,7 +2736,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>85</x:v>
@@ -2753,7 +2753,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>87</x:v>
@@ -2770,7 +2770,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>89</x:v>
@@ -2787,7 +2787,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>91</x:v>
@@ -2804,7 +2804,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>93</x:v>
@@ -2821,7 +2821,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>95</x:v>
@@ -2838,7 +2838,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>97</x:v>
@@ -2855,7 +2855,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>99</x:v>
@@ -2872,7 +2872,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>101</x:v>
@@ -2889,7 +2889,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>103</x:v>
@@ -2906,7 +2906,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>105</x:v>
@@ -2923,7 +2923,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>107</x:v>
@@ -2940,7 +2940,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>109</x:v>
@@ -2957,7 +2957,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
         <x:v>111</x:v>
@@ -2974,7 +2974,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
         <x:v>113</x:v>
@@ -2991,7 +2991,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
         <x:v>115</x:v>
@@ -3008,7 +3008,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
         <x:v>117</x:v>
@@ -3025,7 +3025,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
         <x:v>119</x:v>
@@ -3042,7 +3042,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
         <x:v>121</x:v>
@@ -3059,7 +3059,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
         <x:v>123</x:v>
@@ -3076,7 +3076,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>125</x:v>
@@ -3093,7 +3093,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>127</x:v>
@@ -3110,7 +3110,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
         <x:v>129</x:v>
@@ -3127,7 +3127,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
         <x:v>131</x:v>
@@ -3144,7 +3144,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
         <x:v>133</x:v>
@@ -3161,7 +3161,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
         <x:v>135</x:v>
@@ -3178,7 +3178,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
         <x:v>137</x:v>
@@ -3195,7 +3195,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
         <x:v>139</x:v>
@@ -3212,7 +3212,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
         <x:v>141</x:v>
@@ -3229,7 +3229,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
         <x:v>143</x:v>
@@ -3246,7 +3246,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
         <x:v>145</x:v>
@@ -3263,7 +3263,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
         <x:v>147</x:v>
@@ -3280,7 +3280,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
         <x:v>149</x:v>
@@ -3297,7 +3297,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
         <x:v>151</x:v>
@@ -3314,7 +3314,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
         <x:v>153</x:v>
@@ -3331,7 +3331,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
         <x:v>155</x:v>
@@ -3348,7 +3348,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
         <x:v>157</x:v>
@@ -3365,7 +3365,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
         <x:v>159</x:v>
@@ -3382,7 +3382,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
         <x:v>161</x:v>
@@ -3399,7 +3399,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
         <x:v>163</x:v>
@@ -3416,7 +3416,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
         <x:v>165</x:v>
@@ -3433,7 +3433,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
         <x:v>167</x:v>
@@ -3450,7 +3450,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
         <x:v>169</x:v>
@@ -3467,7 +3467,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
         <x:v>171</x:v>
@@ -3484,7 +3484,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>173</x:v>
@@ -3501,7 +3501,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
         <x:v>175</x:v>
@@ -3518,7 +3518,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
         <x:v>177</x:v>
@@ -3535,7 +3535,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
         <x:v>179</x:v>
@@ -3552,7 +3552,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
         <x:v>181</x:v>
@@ -3569,7 +3569,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
         <x:v>183</x:v>
@@ -3586,7 +3586,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
         <x:v>185</x:v>
@@ -3603,7 +3603,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
         <x:v>187</x:v>
@@ -3620,7 +3620,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
         <x:v>189</x:v>
@@ -3637,7 +3637,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
         <x:v>191</x:v>
@@ -3654,7 +3654,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
         <x:v>193</x:v>
@@ -3671,7 +3671,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
         <x:v>195</x:v>
@@ -3688,7 +3688,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
         <x:v>197</x:v>
@@ -3705,7 +3705,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
         <x:v>199</x:v>
@@ -3722,7 +3722,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
         <x:v>201</x:v>
@@ -3739,7 +3739,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
         <x:v>203</x:v>
@@ -3756,7 +3756,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
         <x:v>205</x:v>
@@ -3773,7 +3773,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E101" s="0" t="s">
         <x:v>207</x:v>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -14,7 +14,7 @@
   <x:sheets>
     <x:sheet name="pvt1" sheetId="2" r:id="rId1"/>
     <x:sheet name="Data" sheetId="1" r:id="rId2"/>
-    <x:sheet name="pvt2" sheetId="7" r:id="rId7"/>
+    <x:sheet name="pvt2" sheetId="3" r:id="rId7"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="152511"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -741,108 +741,7 @@
   </x:cacheSource>
   <x:cacheFields count="5">
     <x:cacheField name="Id">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="100" count="100">
-        <x:n v="1"/>
-        <x:n v="2"/>
-        <x:n v="3"/>
-        <x:n v="4"/>
-        <x:n v="5"/>
-        <x:n v="6"/>
-        <x:n v="7"/>
-        <x:n v="8"/>
-        <x:n v="9"/>
-        <x:n v="10"/>
-        <x:n v="11"/>
-        <x:n v="12"/>
-        <x:n v="13"/>
-        <x:n v="14"/>
-        <x:n v="15"/>
-        <x:n v="16"/>
-        <x:n v="17"/>
-        <x:n v="18"/>
-        <x:n v="19"/>
-        <x:n v="20"/>
-        <x:n v="21"/>
-        <x:n v="22"/>
-        <x:n v="23"/>
-        <x:n v="24"/>
-        <x:n v="25"/>
-        <x:n v="26"/>
-        <x:n v="27"/>
-        <x:n v="28"/>
-        <x:n v="29"/>
-        <x:n v="30"/>
-        <x:n v="31"/>
-        <x:n v="32"/>
-        <x:n v="33"/>
-        <x:n v="34"/>
-        <x:n v="35"/>
-        <x:n v="36"/>
-        <x:n v="37"/>
-        <x:n v="38"/>
-        <x:n v="39"/>
-        <x:n v="40"/>
-        <x:n v="41"/>
-        <x:n v="42"/>
-        <x:n v="43"/>
-        <x:n v="44"/>
-        <x:n v="45"/>
-        <x:n v="46"/>
-        <x:n v="47"/>
-        <x:n v="48"/>
-        <x:n v="49"/>
-        <x:n v="50"/>
-        <x:n v="51"/>
-        <x:n v="52"/>
-        <x:n v="53"/>
-        <x:n v="54"/>
-        <x:n v="55"/>
-        <x:n v="56"/>
-        <x:n v="57"/>
-        <x:n v="58"/>
-        <x:n v="59"/>
-        <x:n v="60"/>
-        <x:n v="61"/>
-        <x:n v="62"/>
-        <x:n v="63"/>
-        <x:n v="64"/>
-        <x:n v="65"/>
-        <x:n v="66"/>
-        <x:n v="67"/>
-        <x:n v="68"/>
-        <x:n v="69"/>
-        <x:n v="70"/>
-        <x:n v="71"/>
-        <x:n v="72"/>
-        <x:n v="73"/>
-        <x:n v="74"/>
-        <x:n v="75"/>
-        <x:n v="76"/>
-        <x:n v="77"/>
-        <x:n v="78"/>
-        <x:n v="79"/>
-        <x:n v="80"/>
-        <x:n v="81"/>
-        <x:n v="82"/>
-        <x:n v="83"/>
-        <x:n v="84"/>
-        <x:n v="85"/>
-        <x:n v="86"/>
-        <x:n v="87"/>
-        <x:n v="88"/>
-        <x:n v="89"/>
-        <x:n v="90"/>
-        <x:n v="91"/>
-        <x:n v="92"/>
-        <x:n v="93"/>
-        <x:n v="94"/>
-        <x:n v="95"/>
-        <x:n v="96"/>
-        <x:n v="97"/>
-        <x:n v="98"/>
-        <x:n v="99"/>
-        <x:n v="100"/>
-      </x:sharedItems>
+      <x:sharedItems/>
     </x:cacheField>
     <x:cacheField name="FullName">
       <x:sharedItems count="100">
@@ -949,64 +848,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Age">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="22" maxValue="100" count="56">
-        <x:n v="99"/>
-        <x:n v="58"/>
-        <x:n v="38"/>
-        <x:n v="98"/>
-        <x:n v="64"/>
-        <x:n v="33"/>
-        <x:n v="31"/>
-        <x:n v="46"/>
-        <x:n v="63"/>
-        <x:n v="95"/>
-        <x:n v="90"/>
-        <x:n v="51"/>
-        <x:n v="82"/>
-        <x:n v="88"/>
-        <x:n v="34"/>
-        <x:n v="79"/>
-        <x:n v="84"/>
-        <x:n v="40"/>
-        <x:n v="48"/>
-        <x:n v="49"/>
-        <x:n v="83"/>
-        <x:n v="71"/>
-        <x:n v="91"/>
-        <x:n v="81"/>
-        <x:n v="87"/>
-        <x:n v="26"/>
-        <x:n v="45"/>
-        <x:n v="66"/>
-        <x:n v="67"/>
-        <x:n v="94"/>
-        <x:n v="43"/>
-        <x:n v="32"/>
-        <x:n v="60"/>
-        <x:n v="69"/>
-        <x:n v="80"/>
-        <x:n v="65"/>
-        <x:n v="36"/>
-        <x:n v="30"/>
-        <x:n v="75"/>
-        <x:n v="44"/>
-        <x:n v="52"/>
-        <x:n v="100"/>
-        <x:n v="59"/>
-        <x:n v="53"/>
-        <x:n v="35"/>
-        <x:n v="92"/>
-        <x:n v="37"/>
-        <x:n v="41"/>
-        <x:n v="24"/>
-        <x:n v="22"/>
-        <x:n v="96"/>
-        <x:n v="39"/>
-        <x:n v="47"/>
-        <x:n v="70"/>
-        <x:n v="57"/>
-        <x:n v="54"/>
-      </x:sharedItems>
+      <x:sharedItems/>
     </x:cacheField>
     <x:cacheField name="Sex">
       <x:sharedItems count="2">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -741,7 +741,7 @@
   </x:cacheSource>
   <x:cacheFields count="5">
     <x:cacheField name="Id">
-      <x:sharedItems/>
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="100"/>
     </x:cacheField>
     <x:cacheField name="FullName">
       <x:sharedItems count="100">
@@ -848,7 +848,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Age">
-      <x:sharedItems/>
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="22" maxValue="100"/>
     </x:cacheField>
     <x:cacheField name="Sex">
       <x:sharedItems count="2">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -970,7 +970,708 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="99"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="58"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="38"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <n v="98"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="64"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="33"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="6"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="64"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="8"/>
+    <n v="46"/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="9"/>
+    <n v="63"/>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="10"/>
+    <n v="95"/>
+    <x v="1"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="11"/>
+    <n v="90"/>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="12"/>
+    <n v="51"/>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="13"/>
+    <n v="82"/>
+    <x v="1"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="14"/>
+    <n v="88"/>
+    <x v="0"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="15"/>
+    <n v="34"/>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="16"/>
+    <n v="79"/>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="17"/>
+    <n v="84"/>
+    <x v="1"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="18"/>
+    <n v="51"/>
+    <x v="1"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="19"/>
+    <n v="40"/>
+    <x v="1"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="20"/>
+    <n v="48"/>
+    <x v="0"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="21"/>
+    <n v="49"/>
+    <x v="1"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="22"/>
+    <n v="82"/>
+    <x v="0"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="23"/>
+    <n v="83"/>
+    <x v="1"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="24"/>
+    <n v="71"/>
+    <x v="1"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="25"/>
+    <n v="91"/>
+    <x v="1"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="26"/>
+    <n v="88"/>
+    <x v="1"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="27"/>
+    <n v="81"/>
+    <x v="1"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="28"/>
+    <n v="87"/>
+    <x v="1"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="29"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="30"/>
+    <n v="45"/>
+    <x v="0"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="31"/>
+    <n v="66"/>
+    <x v="0"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="32"/>
+    <n v="67"/>
+    <x v="1"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="33"/>
+    <n v="94"/>
+    <x v="1"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="34"/>
+    <n v="43"/>
+    <x v="0"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="35"/>
+    <n v="71"/>
+    <x v="1"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="36"/>
+    <n v="32"/>
+    <x v="1"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="37"/>
+    <n v="99"/>
+    <x v="1"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="38"/>
+    <n v="64"/>
+    <x v="1"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="39"/>
+    <n v="60"/>
+    <x v="1"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="40"/>
+    <n v="69"/>
+    <x v="1"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="41"/>
+    <n v="46"/>
+    <x v="1"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="42"/>
+    <n v="81"/>
+    <x v="0"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="43"/>
+    <n v="80"/>
+    <x v="1"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="44"/>
+    <n v="51"/>
+    <x v="1"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="45"/>
+    <n v="65"/>
+    <x v="0"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="46"/>
+    <n v="36"/>
+    <x v="1"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="47"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <x v="48"/>
+    <n v="58"/>
+    <x v="1"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="49"/>
+    <n v="30"/>
+    <x v="1"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="50"/>
+    <n v="75"/>
+    <x v="1"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <x v="51"/>
+    <n v="45"/>
+    <x v="1"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <x v="52"/>
+    <n v="43"/>
+    <x v="1"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <x v="53"/>
+    <n v="44"/>
+    <x v="0"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="54"/>
+    <n v="52"/>
+    <x v="0"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <x v="55"/>
+    <n v="100"/>
+    <x v="0"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <x v="56"/>
+    <n v="59"/>
+    <x v="0"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <x v="57"/>
+    <n v="40"/>
+    <x v="1"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <x v="58"/>
+    <n v="53"/>
+    <x v="0"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <x v="59"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <x v="60"/>
+    <n v="63"/>
+    <x v="0"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <x v="61"/>
+    <n v="34"/>
+    <x v="0"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <x v="62"/>
+    <n v="65"/>
+    <x v="1"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <x v="63"/>
+    <n v="67"/>
+    <x v="1"/>
+    <x v="63"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="64"/>
+    <n v="35"/>
+    <x v="1"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <x v="65"/>
+    <n v="81"/>
+    <x v="0"/>
+    <x v="65"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <x v="66"/>
+    <n v="30"/>
+    <x v="1"/>
+    <x v="66"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <x v="67"/>
+    <n v="92"/>
+    <x v="1"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <x v="68"/>
+    <n v="37"/>
+    <x v="0"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="69"/>
+    <n v="43"/>
+    <x v="0"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <x v="70"/>
+    <n v="41"/>
+    <x v="0"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="71"/>
+    <n v="45"/>
+    <x v="0"/>
+    <x v="71"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <x v="72"/>
+    <n v="92"/>
+    <x v="1"/>
+    <x v="72"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <x v="73"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="73"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="74"/>
+    <n v="44"/>
+    <x v="0"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <x v="75"/>
+    <n v="22"/>
+    <x v="1"/>
+    <x v="75"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <x v="76"/>
+    <n v="96"/>
+    <x v="1"/>
+    <x v="76"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <x v="77"/>
+    <n v="71"/>
+    <x v="0"/>
+    <x v="77"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <x v="78"/>
+    <n v="39"/>
+    <x v="0"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <x v="79"/>
+    <n v="26"/>
+    <x v="1"/>
+    <x v="79"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <x v="80"/>
+    <n v="67"/>
+    <x v="0"/>
+    <x v="80"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <x v="81"/>
+    <n v="100"/>
+    <x v="1"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <x v="82"/>
+    <n v="43"/>
+    <x v="1"/>
+    <x v="82"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <x v="83"/>
+    <n v="90"/>
+    <x v="0"/>
+    <x v="83"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <x v="84"/>
+    <n v="49"/>
+    <x v="0"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <x v="85"/>
+    <n v="47"/>
+    <x v="1"/>
+    <x v="85"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <x v="86"/>
+    <n v="82"/>
+    <x v="1"/>
+    <x v="86"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <x v="87"/>
+    <n v="95"/>
+    <x v="1"/>
+    <x v="87"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <x v="88"/>
+    <n v="47"/>
+    <x v="1"/>
+    <x v="88"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <x v="89"/>
+    <n v="47"/>
+    <x v="1"/>
+    <x v="89"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <x v="90"/>
+    <n v="70"/>
+    <x v="1"/>
+    <x v="90"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <x v="91"/>
+    <n v="81"/>
+    <x v="0"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <x v="92"/>
+    <n v="94"/>
+    <x v="0"/>
+    <x v="92"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <x v="93"/>
+    <n v="57"/>
+    <x v="1"/>
+    <x v="93"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <x v="94"/>
+    <n v="82"/>
+    <x v="0"/>
+    <x v="94"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <x v="95"/>
+    <n v="33"/>
+    <x v="1"/>
+    <x v="95"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <x v="96"/>
+    <n v="99"/>
+    <x v="0"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <x v="97"/>
+    <n v="54"/>
+    <x v="1"/>
+    <x v="97"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <x v="98"/>
+    <n v="69"/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <x v="99"/>
+    <n v="46"/>
+    <x v="0"/>
+    <x v="99"/>
+  </r>
+</pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -1675,621 +1675,293 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" indent="0" multipleFieldFilters="0">
-  <x:location ref="A3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <x:pivotFields count="5">
-    <x:pivotField name="Id">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="FullName">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Age" dataField="1">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Sex" axis="axisRow" showAll="0">
-      <x:items count="3">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="IPAddress" axis="axisPage" showAll="0">
-      <x:items count="101">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item x="7"/>
-        <x:item x="8"/>
-        <x:item x="9"/>
-        <x:item x="10"/>
-        <x:item x="11"/>
-        <x:item x="12"/>
-        <x:item x="13"/>
-        <x:item x="14"/>
-        <x:item x="15"/>
-        <x:item x="16"/>
-        <x:item x="17"/>
-        <x:item x="18"/>
-        <x:item x="19"/>
-        <x:item x="20"/>
-        <x:item x="21"/>
-        <x:item x="22"/>
-        <x:item x="23"/>
-        <x:item x="24"/>
-        <x:item x="25"/>
-        <x:item x="26"/>
-        <x:item x="27"/>
-        <x:item x="28"/>
-        <x:item x="29"/>
-        <x:item x="30"/>
-        <x:item x="31"/>
-        <x:item x="32"/>
-        <x:item x="33"/>
-        <x:item x="34"/>
-        <x:item x="35"/>
-        <x:item x="36"/>
-        <x:item x="37"/>
-        <x:item x="38"/>
-        <x:item x="39"/>
-        <x:item x="40"/>
-        <x:item x="41"/>
-        <x:item x="42"/>
-        <x:item x="43"/>
-        <x:item x="44"/>
-        <x:item x="45"/>
-        <x:item x="46"/>
-        <x:item x="47"/>
-        <x:item x="48"/>
-        <x:item x="49"/>
-        <x:item x="50"/>
-        <x:item x="51"/>
-        <x:item x="52"/>
-        <x:item x="53"/>
-        <x:item x="54"/>
-        <x:item x="55"/>
-        <x:item x="56"/>
-        <x:item x="57"/>
-        <x:item x="58"/>
-        <x:item x="59"/>
-        <x:item x="60"/>
-        <x:item x="61"/>
-        <x:item x="62"/>
-        <x:item x="63"/>
-        <x:item x="64"/>
-        <x:item x="65"/>
-        <x:item x="66"/>
-        <x:item x="67"/>
-        <x:item x="68"/>
-        <x:item x="69"/>
-        <x:item x="70"/>
-        <x:item x="71"/>
-        <x:item x="72"/>
-        <x:item x="73"/>
-        <x:item x="74"/>
-        <x:item x="75"/>
-        <x:item x="76"/>
-        <x:item x="77"/>
-        <x:item x="78"/>
-        <x:item x="79"/>
-        <x:item x="80"/>
-        <x:item x="81"/>
-        <x:item x="82"/>
-        <x:item x="83"/>
-        <x:item x="84"/>
-        <x:item x="85"/>
-        <x:item x="86"/>
-        <x:item x="87"/>
-        <x:item x="88"/>
-        <x:item x="89"/>
-        <x:item x="90"/>
-        <x:item x="91"/>
-        <x:item x="92"/>
-        <x:item x="93"/>
-        <x:item x="94"/>
-        <x:item x="95"/>
-        <x:item x="96"/>
-        <x:item x="97"/>
-        <x:item x="98"/>
-        <x:item x="99"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-  </x:pivotFields>
-  <x:rowFields count="1">
-    <x:field x="3"/>
-  </x:rowFields>
-  <x:rowItems count="3">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colItems count="1">
-    <x:i i="0">
-      <x:x v="0"/>
-    </x:i>
-  </x:colItems>
-  <x:pageFields count="1">
-    <x:pageField fld="4" hier="-1"/>
-  </x:pageFields>
-  <x:dataFields count="1">
-    <x:dataField name="Average of Age" fld="2" subtotal="average" showDataAs="normal" baseField="3" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="101">
+        <item x="83"/>
+        <item x="82"/>
+        <item x="51"/>
+        <item x="41"/>
+        <item x="59"/>
+        <item x="67"/>
+        <item x="48"/>
+        <item x="80"/>
+        <item x="27"/>
+        <item x="5"/>
+        <item x="54"/>
+        <item x="93"/>
+        <item x="55"/>
+        <item x="84"/>
+        <item x="92"/>
+        <item x="77"/>
+        <item x="35"/>
+        <item x="78"/>
+        <item x="30"/>
+        <item x="28"/>
+        <item x="12"/>
+        <item x="26"/>
+        <item x="15"/>
+        <item x="43"/>
+        <item x="21"/>
+        <item x="57"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="65"/>
+        <item x="33"/>
+        <item x="2"/>
+        <item x="63"/>
+        <item x="20"/>
+        <item x="98"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="75"/>
+        <item x="24"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="52"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="70"/>
+        <item x="62"/>
+        <item x="72"/>
+        <item x="81"/>
+        <item x="95"/>
+        <item x="34"/>
+        <item x="50"/>
+        <item x="47"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="64"/>
+        <item x="99"/>
+        <item x="25"/>
+        <item x="69"/>
+        <item x="86"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="88"/>
+        <item x="45"/>
+        <item x="85"/>
+        <item x="31"/>
+        <item x="53"/>
+        <item x="97"/>
+        <item x="89"/>
+        <item x="58"/>
+        <item x="73"/>
+        <item x="11"/>
+        <item x="68"/>
+        <item x="60"/>
+        <item x="74"/>
+        <item x="56"/>
+        <item x="42"/>
+        <item x="66"/>
+        <item x="49"/>
+        <item x="38"/>
+        <item x="91"/>
+        <item x="36"/>
+        <item x="90"/>
+        <item x="32"/>
+        <item x="14"/>
+        <item x="22"/>
+        <item x="87"/>
+        <item x="10"/>
+        <item x="29"/>
+        <item x="61"/>
+        <item x="16"/>
+        <item x="46"/>
+        <item x="76"/>
+        <item x="79"/>
+        <item x="96"/>
+        <item x="3"/>
+        <item x="71"/>
+        <item x="17"/>
+        <item x="7"/>
+        <item x="23"/>
+        <item x="37"/>
+        <item x="94"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of Age" fld="2" subtotal="average" baseField="3" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
-  <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="5">
-    <x:pivotField name="Id" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="FullName" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="100">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item x="7"/>
-        <x:item x="8"/>
-        <x:item x="9"/>
-        <x:item x="10"/>
-        <x:item x="11"/>
-        <x:item x="12"/>
-        <x:item x="13"/>
-        <x:item x="14"/>
-        <x:item x="15"/>
-        <x:item x="16"/>
-        <x:item x="17"/>
-        <x:item x="18"/>
-        <x:item x="19"/>
-        <x:item x="20"/>
-        <x:item x="21"/>
-        <x:item x="22"/>
-        <x:item x="23"/>
-        <x:item x="24"/>
-        <x:item x="25"/>
-        <x:item x="26"/>
-        <x:item x="27"/>
-        <x:item x="28"/>
-        <x:item x="29"/>
-        <x:item x="30"/>
-        <x:item x="31"/>
-        <x:item x="32"/>
-        <x:item x="33"/>
-        <x:item x="34"/>
-        <x:item x="35"/>
-        <x:item x="36"/>
-        <x:item x="37"/>
-        <x:item x="38"/>
-        <x:item x="39"/>
-        <x:item x="40"/>
-        <x:item x="41"/>
-        <x:item x="42"/>
-        <x:item x="43"/>
-        <x:item x="44"/>
-        <x:item x="45"/>
-        <x:item x="46"/>
-        <x:item x="47"/>
-        <x:item x="48"/>
-        <x:item x="49"/>
-        <x:item x="50"/>
-        <x:item x="51"/>
-        <x:item x="52"/>
-        <x:item x="53"/>
-        <x:item x="54"/>
-        <x:item x="55"/>
-        <x:item x="56"/>
-        <x:item x="57"/>
-        <x:item x="58"/>
-        <x:item x="59"/>
-        <x:item x="60"/>
-        <x:item x="61"/>
-        <x:item x="62"/>
-        <x:item x="63"/>
-        <x:item x="64"/>
-        <x:item x="65"/>
-        <x:item x="66"/>
-        <x:item x="67"/>
-        <x:item x="68"/>
-        <x:item x="69"/>
-        <x:item x="70"/>
-        <x:item x="71"/>
-        <x:item x="72"/>
-        <x:item x="73"/>
-        <x:item x="74"/>
-        <x:item x="75"/>
-        <x:item x="76"/>
-        <x:item x="77"/>
-        <x:item x="78"/>
-        <x:item x="79"/>
-        <x:item x="80"/>
-        <x:item x="81"/>
-        <x:item x="82"/>
-        <x:item x="83"/>
-        <x:item x="84"/>
-        <x:item x="85"/>
-        <x:item x="86"/>
-        <x:item x="87"/>
-        <x:item x="88"/>
-        <x:item x="89"/>
-        <x:item x="90"/>
-        <x:item x="91"/>
-        <x:item x="92"/>
-        <x:item x="93"/>
-        <x:item x="94"/>
-        <x:item x="95"/>
-        <x:item x="96"/>
-        <x:item x="97"/>
-        <x:item x="98"/>
-        <x:item x="99"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Age" defaultSubtotal="0"/>
-    <x:pivotField name="Sex" axis="axisCol" showAll="0" defaultSubtotal="0">
-      <x:items count="2">
-        <x:item x="0"/>
-        <x:item x="1"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="IPAddress" defaultSubtotal="0"/>
-  </x:pivotFields>
-  <x:rowFields count="1">
-    <x:field x="1"/>
-  </x:rowFields>
-  <x:rowItems count="101">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i>
-      <x:x v="6"/>
-    </x:i>
-    <x:i>
-      <x:x v="7"/>
-    </x:i>
-    <x:i>
-      <x:x v="8"/>
-    </x:i>
-    <x:i>
-      <x:x v="9"/>
-    </x:i>
-    <x:i>
-      <x:x v="10"/>
-    </x:i>
-    <x:i>
-      <x:x v="11"/>
-    </x:i>
-    <x:i>
-      <x:x v="12"/>
-    </x:i>
-    <x:i>
-      <x:x v="13"/>
-    </x:i>
-    <x:i>
-      <x:x v="14"/>
-    </x:i>
-    <x:i>
-      <x:x v="15"/>
-    </x:i>
-    <x:i>
-      <x:x v="16"/>
-    </x:i>
-    <x:i>
-      <x:x v="17"/>
-    </x:i>
-    <x:i>
-      <x:x v="18"/>
-    </x:i>
-    <x:i>
-      <x:x v="19"/>
-    </x:i>
-    <x:i>
-      <x:x v="20"/>
-    </x:i>
-    <x:i>
-      <x:x v="21"/>
-    </x:i>
-    <x:i>
-      <x:x v="22"/>
-    </x:i>
-    <x:i>
-      <x:x v="23"/>
-    </x:i>
-    <x:i>
-      <x:x v="24"/>
-    </x:i>
-    <x:i>
-      <x:x v="25"/>
-    </x:i>
-    <x:i>
-      <x:x v="26"/>
-    </x:i>
-    <x:i>
-      <x:x v="27"/>
-    </x:i>
-    <x:i>
-      <x:x v="28"/>
-    </x:i>
-    <x:i>
-      <x:x v="29"/>
-    </x:i>
-    <x:i>
-      <x:x v="30"/>
-    </x:i>
-    <x:i>
-      <x:x v="31"/>
-    </x:i>
-    <x:i>
-      <x:x v="32"/>
-    </x:i>
-    <x:i>
-      <x:x v="33"/>
-    </x:i>
-    <x:i>
-      <x:x v="34"/>
-    </x:i>
-    <x:i>
-      <x:x v="35"/>
-    </x:i>
-    <x:i>
-      <x:x v="36"/>
-    </x:i>
-    <x:i>
-      <x:x v="37"/>
-    </x:i>
-    <x:i>
-      <x:x v="38"/>
-    </x:i>
-    <x:i>
-      <x:x v="39"/>
-    </x:i>
-    <x:i>
-      <x:x v="40"/>
-    </x:i>
-    <x:i>
-      <x:x v="41"/>
-    </x:i>
-    <x:i>
-      <x:x v="42"/>
-    </x:i>
-    <x:i>
-      <x:x v="43"/>
-    </x:i>
-    <x:i>
-      <x:x v="44"/>
-    </x:i>
-    <x:i>
-      <x:x v="45"/>
-    </x:i>
-    <x:i>
-      <x:x v="46"/>
-    </x:i>
-    <x:i>
-      <x:x v="47"/>
-    </x:i>
-    <x:i>
-      <x:x v="48"/>
-    </x:i>
-    <x:i>
-      <x:x v="49"/>
-    </x:i>
-    <x:i>
-      <x:x v="50"/>
-    </x:i>
-    <x:i>
-      <x:x v="51"/>
-    </x:i>
-    <x:i>
-      <x:x v="52"/>
-    </x:i>
-    <x:i>
-      <x:x v="53"/>
-    </x:i>
-    <x:i>
-      <x:x v="54"/>
-    </x:i>
-    <x:i>
-      <x:x v="55"/>
-    </x:i>
-    <x:i>
-      <x:x v="56"/>
-    </x:i>
-    <x:i>
-      <x:x v="57"/>
-    </x:i>
-    <x:i>
-      <x:x v="58"/>
-    </x:i>
-    <x:i>
-      <x:x v="59"/>
-    </x:i>
-    <x:i>
-      <x:x v="60"/>
-    </x:i>
-    <x:i>
-      <x:x v="61"/>
-    </x:i>
-    <x:i>
-      <x:x v="62"/>
-    </x:i>
-    <x:i>
-      <x:x v="63"/>
-    </x:i>
-    <x:i>
-      <x:x v="64"/>
-    </x:i>
-    <x:i>
-      <x:x v="65"/>
-    </x:i>
-    <x:i>
-      <x:x v="66"/>
-    </x:i>
-    <x:i>
-      <x:x v="67"/>
-    </x:i>
-    <x:i>
-      <x:x v="68"/>
-    </x:i>
-    <x:i>
-      <x:x v="69"/>
-    </x:i>
-    <x:i>
-      <x:x v="70"/>
-    </x:i>
-    <x:i>
-      <x:x v="71"/>
-    </x:i>
-    <x:i>
-      <x:x v="72"/>
-    </x:i>
-    <x:i>
-      <x:x v="73"/>
-    </x:i>
-    <x:i>
-      <x:x v="74"/>
-    </x:i>
-    <x:i>
-      <x:x v="75"/>
-    </x:i>
-    <x:i>
-      <x:x v="76"/>
-    </x:i>
-    <x:i>
-      <x:x v="77"/>
-    </x:i>
-    <x:i>
-      <x:x v="78"/>
-    </x:i>
-    <x:i>
-      <x:x v="79"/>
-    </x:i>
-    <x:i>
-      <x:x v="80"/>
-    </x:i>
-    <x:i>
-      <x:x v="81"/>
-    </x:i>
-    <x:i>
-      <x:x v="82"/>
-    </x:i>
-    <x:i>
-      <x:x v="83"/>
-    </x:i>
-    <x:i>
-      <x:x v="84"/>
-    </x:i>
-    <x:i>
-      <x:x v="85"/>
-    </x:i>
-    <x:i>
-      <x:x v="86"/>
-    </x:i>
-    <x:i>
-      <x:x v="87"/>
-    </x:i>
-    <x:i>
-      <x:x v="88"/>
-    </x:i>
-    <x:i>
-      <x:x v="89"/>
-    </x:i>
-    <x:i>
-      <x:x v="90"/>
-    </x:i>
-    <x:i>
-      <x:x v="91"/>
-    </x:i>
-    <x:i>
-      <x:x v="92"/>
-    </x:i>
-    <x:i>
-      <x:x v="93"/>
-    </x:i>
-    <x:i>
-      <x:x v="94"/>
-    </x:i>
-    <x:i>
-      <x:x v="95"/>
-    </x:i>
-    <x:i>
-      <x:x v="96"/>
-    </x:i>
-    <x:i>
-      <x:x v="97"/>
-    </x:i>
-    <x:i>
-      <x:x v="98"/>
-    </x:i>
-    <x:i>
-      <x:x v="99"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colFields count="1">
-    <x:field x="3"/>
-  </x:colFields>
-  <x:colItems count="3">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="1">
-    <x:dataField name="Count of Id" fld="0" subtotal="count" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1">
+  <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField name="FullName" axis="axisRow" showAll="0">
+      <items count="101">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField name="Sex" axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <dataFields count="1">
+    <dataField name="Count of Id" fld="0" subtotal="count"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -1831,8 +1831,8 @@
   <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
-    <pivotField name="FullName" axis="axisRow" showAll="0">
-      <items count="101">
+    <pivotField name="FullName" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="100">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1933,15 +1933,13 @@
         <item x="97"/>
         <item x="98"/>
         <item x="99"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField name="Sex" axis="axisCol" showAll="0">
-      <items count="3">
+    <pivotField name="Sex" axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="2">
         <item x="0"/>
         <item x="1"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -1675,621 +1675,291 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" indent="0" multipleFieldFilters="0">
-  <x:location ref="A3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <x:pivotFields count="5">
-    <x:pivotField name="Id">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="FullName">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Age" dataField="1">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Sex" axis="axisRow" showAll="0">
-      <x:items count="3">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="IPAddress" axis="axisPage" showAll="0">
-      <x:items count="101">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item x="7"/>
-        <x:item x="8"/>
-        <x:item x="9"/>
-        <x:item x="10"/>
-        <x:item x="11"/>
-        <x:item x="12"/>
-        <x:item x="13"/>
-        <x:item x="14"/>
-        <x:item x="15"/>
-        <x:item x="16"/>
-        <x:item x="17"/>
-        <x:item x="18"/>
-        <x:item x="19"/>
-        <x:item x="20"/>
-        <x:item x="21"/>
-        <x:item x="22"/>
-        <x:item x="23"/>
-        <x:item x="24"/>
-        <x:item x="25"/>
-        <x:item x="26"/>
-        <x:item x="27"/>
-        <x:item x="28"/>
-        <x:item x="29"/>
-        <x:item x="30"/>
-        <x:item x="31"/>
-        <x:item x="32"/>
-        <x:item x="33"/>
-        <x:item x="34"/>
-        <x:item x="35"/>
-        <x:item x="36"/>
-        <x:item x="37"/>
-        <x:item x="38"/>
-        <x:item x="39"/>
-        <x:item x="40"/>
-        <x:item x="41"/>
-        <x:item x="42"/>
-        <x:item x="43"/>
-        <x:item x="44"/>
-        <x:item x="45"/>
-        <x:item x="46"/>
-        <x:item x="47"/>
-        <x:item x="48"/>
-        <x:item x="49"/>
-        <x:item x="50"/>
-        <x:item x="51"/>
-        <x:item x="52"/>
-        <x:item x="53"/>
-        <x:item x="54"/>
-        <x:item x="55"/>
-        <x:item x="56"/>
-        <x:item x="57"/>
-        <x:item x="58"/>
-        <x:item x="59"/>
-        <x:item x="60"/>
-        <x:item x="61"/>
-        <x:item x="62"/>
-        <x:item x="63"/>
-        <x:item x="64"/>
-        <x:item x="65"/>
-        <x:item x="66"/>
-        <x:item x="67"/>
-        <x:item x="68"/>
-        <x:item x="69"/>
-        <x:item x="70"/>
-        <x:item x="71"/>
-        <x:item x="72"/>
-        <x:item x="73"/>
-        <x:item x="74"/>
-        <x:item x="75"/>
-        <x:item x="76"/>
-        <x:item x="77"/>
-        <x:item x="78"/>
-        <x:item x="79"/>
-        <x:item x="80"/>
-        <x:item x="81"/>
-        <x:item x="82"/>
-        <x:item x="83"/>
-        <x:item x="84"/>
-        <x:item x="85"/>
-        <x:item x="86"/>
-        <x:item x="87"/>
-        <x:item x="88"/>
-        <x:item x="89"/>
-        <x:item x="90"/>
-        <x:item x="91"/>
-        <x:item x="92"/>
-        <x:item x="93"/>
-        <x:item x="94"/>
-        <x:item x="95"/>
-        <x:item x="96"/>
-        <x:item x="97"/>
-        <x:item x="98"/>
-        <x:item x="99"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-  </x:pivotFields>
-  <x:rowFields count="1">
-    <x:field x="3"/>
-  </x:rowFields>
-  <x:rowItems count="3">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colItems count="1">
-    <x:i i="0">
-      <x:x v="0"/>
-    </x:i>
-  </x:colItems>
-  <x:pageFields count="1">
-    <x:pageField fld="4" hier="-1"/>
-  </x:pageFields>
-  <x:dataFields count="1">
-    <x:dataField name="Average of Age" fld="2" subtotal="average" showDataAs="normal" baseField="3" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="101">
+        <item x="83"/>
+        <item x="82"/>
+        <item x="51"/>
+        <item x="41"/>
+        <item x="59"/>
+        <item x="67"/>
+        <item x="48"/>
+        <item x="80"/>
+        <item x="27"/>
+        <item x="5"/>
+        <item x="54"/>
+        <item x="93"/>
+        <item x="55"/>
+        <item x="84"/>
+        <item x="92"/>
+        <item x="77"/>
+        <item x="35"/>
+        <item x="78"/>
+        <item x="30"/>
+        <item x="28"/>
+        <item x="12"/>
+        <item x="26"/>
+        <item x="15"/>
+        <item x="43"/>
+        <item x="21"/>
+        <item x="57"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="65"/>
+        <item x="33"/>
+        <item x="2"/>
+        <item x="63"/>
+        <item x="20"/>
+        <item x="98"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="75"/>
+        <item x="24"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="52"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="70"/>
+        <item x="62"/>
+        <item x="72"/>
+        <item x="81"/>
+        <item x="95"/>
+        <item x="34"/>
+        <item x="50"/>
+        <item x="47"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="64"/>
+        <item x="99"/>
+        <item x="25"/>
+        <item x="69"/>
+        <item x="86"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="88"/>
+        <item x="45"/>
+        <item x="85"/>
+        <item x="31"/>
+        <item x="53"/>
+        <item x="97"/>
+        <item x="89"/>
+        <item x="58"/>
+        <item x="73"/>
+        <item x="11"/>
+        <item x="68"/>
+        <item x="60"/>
+        <item x="74"/>
+        <item x="56"/>
+        <item x="42"/>
+        <item x="66"/>
+        <item x="49"/>
+        <item x="38"/>
+        <item x="91"/>
+        <item x="36"/>
+        <item x="90"/>
+        <item x="32"/>
+        <item x="14"/>
+        <item x="22"/>
+        <item x="87"/>
+        <item x="10"/>
+        <item x="29"/>
+        <item x="61"/>
+        <item x="16"/>
+        <item x="46"/>
+        <item x="76"/>
+        <item x="79"/>
+        <item x="96"/>
+        <item x="3"/>
+        <item x="71"/>
+        <item x="17"/>
+        <item x="7"/>
+        <item x="23"/>
+        <item x="37"/>
+        <item x="94"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of Age" fld="2" subtotal="average" baseField="3" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
-  <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="5">
-    <x:pivotField name="Id" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="FullName" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="100">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item x="7"/>
-        <x:item x="8"/>
-        <x:item x="9"/>
-        <x:item x="10"/>
-        <x:item x="11"/>
-        <x:item x="12"/>
-        <x:item x="13"/>
-        <x:item x="14"/>
-        <x:item x="15"/>
-        <x:item x="16"/>
-        <x:item x="17"/>
-        <x:item x="18"/>
-        <x:item x="19"/>
-        <x:item x="20"/>
-        <x:item x="21"/>
-        <x:item x="22"/>
-        <x:item x="23"/>
-        <x:item x="24"/>
-        <x:item x="25"/>
-        <x:item x="26"/>
-        <x:item x="27"/>
-        <x:item x="28"/>
-        <x:item x="29"/>
-        <x:item x="30"/>
-        <x:item x="31"/>
-        <x:item x="32"/>
-        <x:item x="33"/>
-        <x:item x="34"/>
-        <x:item x="35"/>
-        <x:item x="36"/>
-        <x:item x="37"/>
-        <x:item x="38"/>
-        <x:item x="39"/>
-        <x:item x="40"/>
-        <x:item x="41"/>
-        <x:item x="42"/>
-        <x:item x="43"/>
-        <x:item x="44"/>
-        <x:item x="45"/>
-        <x:item x="46"/>
-        <x:item x="47"/>
-        <x:item x="48"/>
-        <x:item x="49"/>
-        <x:item x="50"/>
-        <x:item x="51"/>
-        <x:item x="52"/>
-        <x:item x="53"/>
-        <x:item x="54"/>
-        <x:item x="55"/>
-        <x:item x="56"/>
-        <x:item x="57"/>
-        <x:item x="58"/>
-        <x:item x="59"/>
-        <x:item x="60"/>
-        <x:item x="61"/>
-        <x:item x="62"/>
-        <x:item x="63"/>
-        <x:item x="64"/>
-        <x:item x="65"/>
-        <x:item x="66"/>
-        <x:item x="67"/>
-        <x:item x="68"/>
-        <x:item x="69"/>
-        <x:item x="70"/>
-        <x:item x="71"/>
-        <x:item x="72"/>
-        <x:item x="73"/>
-        <x:item x="74"/>
-        <x:item x="75"/>
-        <x:item x="76"/>
-        <x:item x="77"/>
-        <x:item x="78"/>
-        <x:item x="79"/>
-        <x:item x="80"/>
-        <x:item x="81"/>
-        <x:item x="82"/>
-        <x:item x="83"/>
-        <x:item x="84"/>
-        <x:item x="85"/>
-        <x:item x="86"/>
-        <x:item x="87"/>
-        <x:item x="88"/>
-        <x:item x="89"/>
-        <x:item x="90"/>
-        <x:item x="91"/>
-        <x:item x="92"/>
-        <x:item x="93"/>
-        <x:item x="94"/>
-        <x:item x="95"/>
-        <x:item x="96"/>
-        <x:item x="97"/>
-        <x:item x="98"/>
-        <x:item x="99"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Age" defaultSubtotal="0"/>
-    <x:pivotField name="Sex" axis="axisCol" showAll="0" defaultSubtotal="0">
-      <x:items count="2">
-        <x:item x="0"/>
-        <x:item x="1"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="IPAddress" defaultSubtotal="0"/>
-  </x:pivotFields>
-  <x:rowFields count="1">
-    <x:field x="1"/>
-  </x:rowFields>
-  <x:rowItems count="101">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i>
-      <x:x v="6"/>
-    </x:i>
-    <x:i>
-      <x:x v="7"/>
-    </x:i>
-    <x:i>
-      <x:x v="8"/>
-    </x:i>
-    <x:i>
-      <x:x v="9"/>
-    </x:i>
-    <x:i>
-      <x:x v="10"/>
-    </x:i>
-    <x:i>
-      <x:x v="11"/>
-    </x:i>
-    <x:i>
-      <x:x v="12"/>
-    </x:i>
-    <x:i>
-      <x:x v="13"/>
-    </x:i>
-    <x:i>
-      <x:x v="14"/>
-    </x:i>
-    <x:i>
-      <x:x v="15"/>
-    </x:i>
-    <x:i>
-      <x:x v="16"/>
-    </x:i>
-    <x:i>
-      <x:x v="17"/>
-    </x:i>
-    <x:i>
-      <x:x v="18"/>
-    </x:i>
-    <x:i>
-      <x:x v="19"/>
-    </x:i>
-    <x:i>
-      <x:x v="20"/>
-    </x:i>
-    <x:i>
-      <x:x v="21"/>
-    </x:i>
-    <x:i>
-      <x:x v="22"/>
-    </x:i>
-    <x:i>
-      <x:x v="23"/>
-    </x:i>
-    <x:i>
-      <x:x v="24"/>
-    </x:i>
-    <x:i>
-      <x:x v="25"/>
-    </x:i>
-    <x:i>
-      <x:x v="26"/>
-    </x:i>
-    <x:i>
-      <x:x v="27"/>
-    </x:i>
-    <x:i>
-      <x:x v="28"/>
-    </x:i>
-    <x:i>
-      <x:x v="29"/>
-    </x:i>
-    <x:i>
-      <x:x v="30"/>
-    </x:i>
-    <x:i>
-      <x:x v="31"/>
-    </x:i>
-    <x:i>
-      <x:x v="32"/>
-    </x:i>
-    <x:i>
-      <x:x v="33"/>
-    </x:i>
-    <x:i>
-      <x:x v="34"/>
-    </x:i>
-    <x:i>
-      <x:x v="35"/>
-    </x:i>
-    <x:i>
-      <x:x v="36"/>
-    </x:i>
-    <x:i>
-      <x:x v="37"/>
-    </x:i>
-    <x:i>
-      <x:x v="38"/>
-    </x:i>
-    <x:i>
-      <x:x v="39"/>
-    </x:i>
-    <x:i>
-      <x:x v="40"/>
-    </x:i>
-    <x:i>
-      <x:x v="41"/>
-    </x:i>
-    <x:i>
-      <x:x v="42"/>
-    </x:i>
-    <x:i>
-      <x:x v="43"/>
-    </x:i>
-    <x:i>
-      <x:x v="44"/>
-    </x:i>
-    <x:i>
-      <x:x v="45"/>
-    </x:i>
-    <x:i>
-      <x:x v="46"/>
-    </x:i>
-    <x:i>
-      <x:x v="47"/>
-    </x:i>
-    <x:i>
-      <x:x v="48"/>
-    </x:i>
-    <x:i>
-      <x:x v="49"/>
-    </x:i>
-    <x:i>
-      <x:x v="50"/>
-    </x:i>
-    <x:i>
-      <x:x v="51"/>
-    </x:i>
-    <x:i>
-      <x:x v="52"/>
-    </x:i>
-    <x:i>
-      <x:x v="53"/>
-    </x:i>
-    <x:i>
-      <x:x v="54"/>
-    </x:i>
-    <x:i>
-      <x:x v="55"/>
-    </x:i>
-    <x:i>
-      <x:x v="56"/>
-    </x:i>
-    <x:i>
-      <x:x v="57"/>
-    </x:i>
-    <x:i>
-      <x:x v="58"/>
-    </x:i>
-    <x:i>
-      <x:x v="59"/>
-    </x:i>
-    <x:i>
-      <x:x v="60"/>
-    </x:i>
-    <x:i>
-      <x:x v="61"/>
-    </x:i>
-    <x:i>
-      <x:x v="62"/>
-    </x:i>
-    <x:i>
-      <x:x v="63"/>
-    </x:i>
-    <x:i>
-      <x:x v="64"/>
-    </x:i>
-    <x:i>
-      <x:x v="65"/>
-    </x:i>
-    <x:i>
-      <x:x v="66"/>
-    </x:i>
-    <x:i>
-      <x:x v="67"/>
-    </x:i>
-    <x:i>
-      <x:x v="68"/>
-    </x:i>
-    <x:i>
-      <x:x v="69"/>
-    </x:i>
-    <x:i>
-      <x:x v="70"/>
-    </x:i>
-    <x:i>
-      <x:x v="71"/>
-    </x:i>
-    <x:i>
-      <x:x v="72"/>
-    </x:i>
-    <x:i>
-      <x:x v="73"/>
-    </x:i>
-    <x:i>
-      <x:x v="74"/>
-    </x:i>
-    <x:i>
-      <x:x v="75"/>
-    </x:i>
-    <x:i>
-      <x:x v="76"/>
-    </x:i>
-    <x:i>
-      <x:x v="77"/>
-    </x:i>
-    <x:i>
-      <x:x v="78"/>
-    </x:i>
-    <x:i>
-      <x:x v="79"/>
-    </x:i>
-    <x:i>
-      <x:x v="80"/>
-    </x:i>
-    <x:i>
-      <x:x v="81"/>
-    </x:i>
-    <x:i>
-      <x:x v="82"/>
-    </x:i>
-    <x:i>
-      <x:x v="83"/>
-    </x:i>
-    <x:i>
-      <x:x v="84"/>
-    </x:i>
-    <x:i>
-      <x:x v="85"/>
-    </x:i>
-    <x:i>
-      <x:x v="86"/>
-    </x:i>
-    <x:i>
-      <x:x v="87"/>
-    </x:i>
-    <x:i>
-      <x:x v="88"/>
-    </x:i>
-    <x:i>
-      <x:x v="89"/>
-    </x:i>
-    <x:i>
-      <x:x v="90"/>
-    </x:i>
-    <x:i>
-      <x:x v="91"/>
-    </x:i>
-    <x:i>
-      <x:x v="92"/>
-    </x:i>
-    <x:i>
-      <x:x v="93"/>
-    </x:i>
-    <x:i>
-      <x:x v="94"/>
-    </x:i>
-    <x:i>
-      <x:x v="95"/>
-    </x:i>
-    <x:i>
-      <x:x v="96"/>
-    </x:i>
-    <x:i>
-      <x:x v="97"/>
-    </x:i>
-    <x:i>
-      <x:x v="98"/>
-    </x:i>
-    <x:i>
-      <x:x v="99"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colFields count="1">
-    <x:field x="3"/>
-  </x:colFields>
-  <x:colItems count="3">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="1">
-    <x:dataField name="Count of Id" fld="0" subtotal="count" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1">
+  <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField name="FullName" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="100">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField name="Sex" axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <dataFields count="1">
+    <dataField name="Count of Id" fld="0" subtotal="count"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
